--- a/biology/Médecine/Prolapsus_génital/Prolapsus_génital.xlsx
+++ b/biology/Médecine/Prolapsus_génital/Prolapsus_génital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prolapsus_g%C3%A9nital</t>
+          <t>Prolapsus_génital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prolapsus génital (ou « descente d’organes » dans le langage courant) est un déplacement anormal d’un ou plusieurs organes du pelvis féminin vers le bas.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prolapsus_g%C3%A9nital</t>
+          <t>Prolapsus_génital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pelvis, ou « petit bassin » de la femme, contient quatre organes : La vessie en avant, l’utérus et le vagin au milieu, et le rectum en arrière.
 Le prolapsus génital (ou « descente d’organes » dans le langage courant) est un déplacement anormal, soit d’un seul organe, soit de deux organes, soit des trois organes du pelvis vers le bas, avec, éventuellement, l’issue de cet organe à l’extérieur, à travers l’orifice vulvaire ou à travers l'anus.
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prolapsus_g%C3%A9nital</t>
+          <t>Prolapsus_génital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,9 +573,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prolapsus génital est responsable d'un cinquième des indications de chirurgie gynécologique[2]. Son incidence annuelle, en Grande-Bretagne, est de 2 cas pour 1 000 femmes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prolapsus génital est responsable d'un cinquième des indications de chirurgie gynécologique. Son incidence annuelle, en Grande-Bretagne, est de 2 cas pour 1 000 femmes.
 </t>
         </is>
       </c>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prolapsus_g%C3%A9nital</t>
+          <t>Prolapsus_génital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois organes du pelvis sont maintenus à leur place naturelle par deux moyens :
 des moyens de suspension : essentiellement constitués par les ligaments qui tiennent ces organes, et par les fascias, sortes de ciments naturels qui solidarisent ces trois organes entre eux ;
@@ -602,8 +620,8 @@
 le surpoids et l’obésité (qui provoque une pression trop importante de l'abdomen sur les organes du pelvis, et qui distend les ligaments) ;
 des grossesses multiples ;
 des troubles neurologiques : paraplégie, qui entraîne une dénervation du pelvis et un affaiblissement de ses muscles ;
-l'âge, le risque doublant à chaque décennie à partir d'un certain âge[4] ;
-des accouchements difficiles (usage de forceps, par exemple), des accouchements de gros enfants (plus de 4 kg), qui abîment les muscles du périnée. Ces derniers facteurs sont classiques mais n'ont cependant pas été prouvés[2] ;
+l'âge, le risque doublant à chaque décennie à partir d'un certain âge ;
+des accouchements difficiles (usage de forceps, par exemple), des accouchements de gros enfants (plus de 4 kg), qui abîment les muscles du périnée. Ces derniers facteurs sont classiques mais n'ont cependant pas été prouvés ;
 Certains sports, comme le "step", qui entraînent de fortes pressions sur le périnée[réf. nécessaire].
 Parfois, cependant, aucune cause évidente n’est retrouvée.
 </t>
@@ -616,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prolapsus_g%C3%A9nital</t>
+          <t>Prolapsus_génital</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,7 +652,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes dépendent, en partie, de l'importance du prolapsus.
 En fonction de la prédominance du prolapsus sur l’un des trois organes du pelvis, les symptômes ressentis sont les suivants :
@@ -652,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prolapsus_g%C3%A9nital</t>
+          <t>Prolapsus_génital</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,10 +690,12 @@
           <t>Évaluation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen gynécologique est indispensable.
-Il existe plusieurs échelles permettant d'en évaluer la sévérité. L'une des plus employée est celle de la Société Américaine de Gynécologie qui classe les prolapsus en 5 grades[5].
+Il existe plusieurs échelles permettant d'en évaluer la sévérité. L'une des plus employée est celle de la Société Américaine de Gynécologie qui classe les prolapsus en 5 grades.
 </t>
         </is>
       </c>
@@ -684,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prolapsus_g%C3%A9nital</t>
+          <t>Prolapsus_génital</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,17 +724,19 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge du prolapsus génital a fait l'objet de la publication de recommandations. Celles, anglaises, datent de 2019[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge du prolapsus génital a fait l'objet de la publication de recommandations. Celles, anglaises, datent de 2019.
 Le traitement du prolapsus génital doit être précédé par un bilan de son retentissement, et par la recherche d'anomalies associées. Il conviendra par ailleurs de corriger certains facteurs favorisants : récupérer une compétence abdominale correcte (les pressions abdominales doivent être correctement orientées lors de la toux, des éternuements...), traiter une constipation, donner un traitement hormonal substitutif en post-ménopause...
-Un prolapsus urinaire ou génital relèvera, dans l'immense majorité des cas, d'un traitement chirurgical (quand le prolapsus est à un stade avancé (2e et 3e degrés)). Effectivement, la rééducation périnéale peut parfois maintenir un prolapsus débutant mais une fois que le prolapsus est avancé (c'est-à-dire quand il est du 3e degré), elle ne permet pas de réintégrer les organes qui sont « descendus ». Il faut donc commencer la rééducation dès les premiers signes pour permettre de limiter la « descente » de ce prolapsus et peut-être éviter l'opération. Cette rééducation permet toutefois de réduire les symptômes[7],[8]. Son efficacité sur le prolapsus lui-même reste douteuse[9].
-Le traitement chirurgical a pour but de remplacer les moyens de suspension (fascias, ligaments) ou les moyens de soutènement (muscles du périnée) devenus défaillants, et le plus souvent les deux. Il fait appel le plus souvent, à l’utilisation de « prothèses » synthétiques (c'est-à-dire artificielles, n’utilisant aucun produit d’origine animale ou humaine) qui ressemblent à des tissus tricotés (comme les « mailles d’un filet ») : ces prothèses servant à remplacer les fascias défaillants, ou à suspendre les organes « descendus » à des ligaments naturels solides. Toutefois, depuis 2013, la FDA a déconseillé les prothèses insérées par voie vaginale devant les résultats très décevants (absence de bénéfice clinique pour la patiente, taux de réinterventions pour récidive inchangé, douleurs et  dyspareunie fréquentes en cas de rétractation de la prothèse, extériorisation de la prothèse à un an dans 10 %  des cas)[10]. La chirurgie peut également consister en l'ablation du col utérin avec plicature des ligaments utéro-sacrés (« procédure de Manchester »), qui s'avère avoir de meilleurs résultats que l'hystéropexie[11].
+Un prolapsus urinaire ou génital relèvera, dans l'immense majorité des cas, d'un traitement chirurgical (quand le prolapsus est à un stade avancé (2e et 3e degrés)). Effectivement, la rééducation périnéale peut parfois maintenir un prolapsus débutant mais une fois que le prolapsus est avancé (c'est-à-dire quand il est du 3e degré), elle ne permet pas de réintégrer les organes qui sont « descendus ». Il faut donc commencer la rééducation dès les premiers signes pour permettre de limiter la « descente » de ce prolapsus et peut-être éviter l'opération. Cette rééducation permet toutefois de réduire les symptômes,. Son efficacité sur le prolapsus lui-même reste douteuse.
+Le traitement chirurgical a pour but de remplacer les moyens de suspension (fascias, ligaments) ou les moyens de soutènement (muscles du périnée) devenus défaillants, et le plus souvent les deux. Il fait appel le plus souvent, à l’utilisation de « prothèses » synthétiques (c'est-à-dire artificielles, n’utilisant aucun produit d’origine animale ou humaine) qui ressemblent à des tissus tricotés (comme les « mailles d’un filet ») : ces prothèses servant à remplacer les fascias défaillants, ou à suspendre les organes « descendus » à des ligaments naturels solides. Toutefois, depuis 2013, la FDA a déconseillé les prothèses insérées par voie vaginale devant les résultats très décevants (absence de bénéfice clinique pour la patiente, taux de réinterventions pour récidive inchangé, douleurs et  dyspareunie fréquentes en cas de rétractation de la prothèse, extériorisation de la prothèse à un an dans 10 %  des cas). La chirurgie peut également consister en l'ablation du col utérin avec plicature des ligaments utéro-sacrés (« procédure de Manchester »), qui s'avère avoir de meilleurs résultats que l'hystéropexie.
 Ce traitement peut se faire selon trois voies chirurgicales différentes :
 en ouvrant l'abdomen (« laparotomie »  pour promontofixation) ;
 par cœlioscopie ;
 en passant par le vagin (« voie vaginale »).
-La simplicité technique, le taux de complications réputé moindre, et la durée d’intervention plus courte ont fait préférer, pour beaucoup d'écoles chirurgicales, la voie vaginale chez les femmes en ménopause ou en pré-ménopause (alors que la cœlioscopie ou la laparotomie sont plus souvent réservées aux femmes plus jeunes, en raison de la meilleure efficacité à long terme et de la meilleure résistance aux importants efforts physiques). La chirurgie peut être assistée par un robot[12].
+La simplicité technique, le taux de complications réputé moindre, et la durée d’intervention plus courte ont fait préférer, pour beaucoup d'écoles chirurgicales, la voie vaginale chez les femmes en ménopause ou en pré-ménopause (alors que la cœlioscopie ou la laparotomie sont plus souvent réservées aux femmes plus jeunes, en raison de la meilleure efficacité à long terme et de la meilleure résistance aux importants efforts physiques). La chirurgie peut être assistée par un robot.
 En cas de refus de l'intervention ou de contre-indication de cette dernière, l'utilisation d'un pessaire peut être discutée. Elle consiste en la mise en place d'un dispositif dans le vagin destiné à maintenir les organes ptosés en place. Elle nécessite un suivi régulier.
 Il n’y a pas de « traitement standard », et chaque cas est différent. Le choix de la technique est adapté à chaque patiente. Dans beaucoup de cas, une ablation de l’utérus (« hystérectomie ») est nécessaire, pour des raisons techniques. Dans tous les cas, une rééducation abdominale et périnéale est indispensable en post-chirurgie.
 </t>
